--- a/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Project Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Project Test Cases.xlsx
@@ -118,9 +118,14 @@
   </si>
   <si>
     <t>Credential for Infrastructure super admin:
-URL: https://soulwsc.eduleadonline.com/app/infrastructure
-User ID: Administrator
-Password: admin</t>
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com     erp@123
+building.admin@mail.com                         erp@123
+floor.supervisor@mail.com                       erp@123
+maintenance.dept@gmail.com                 erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -2549,8 +2554,8 @@
   <sheetPr/>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2663,7 +2668,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="130.5" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3009,7 +3014,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="$A39:$XFD41"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3122,7 +3127,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="130.5" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3656,7 +3661,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="$A45:$XFD47"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3769,7 +3774,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="130.5" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -4353,7 +4358,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A43" sqref="$A43:$XFD45"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4466,7 +4471,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="130.5" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -4650,7 +4655,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" customFormat="1" spans="1:7">
+    <row r="21" customFormat="1" ht="29" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>103</v>
       </c>

--- a/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Project Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Project Plan Monitoring_Project Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="408">
   <si>
     <t>Contents</t>
   </si>
@@ -118,14 +118,9 @@
   </si>
   <si>
     <t>Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------
-project.manager@soulunileaders.com     erp@123
-building.admin@mail.com                         erp@123
-floor.supervisor@mail.com                       erp@123
-maintenance.dept@gmail.com                 erp@123</t>
+URL: https://soulwsc.eduleadonline.com/app/infrastructure
+User ID: Administrator
+Password: admin</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -164,6 +159,12 @@
     <t>Project Type opens up.</t>
   </si>
   <si>
+    <t>Project type is opening</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Step 2</t>
   </si>
   <si>
@@ -173,6 +174,9 @@
     <t>New Project Type opens up.</t>
   </si>
   <si>
+    <t xml:space="preserve">New project typeis opening </t>
+  </si>
+  <si>
     <t>Step 3</t>
   </si>
   <si>
@@ -180,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">New Project Type opens up with small message box Project Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Project Type is opening with small message box Project Type </t>
   </si>
   <si>
     <t>Step 4</t>
@@ -191,6 +198,9 @@
   </si>
   <si>
     <t>The Project Type details will be saved successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project type is saving </t>
   </si>
   <si>
     <t>Step 5</t>
@@ -205,6 +215,9 @@
 Project Type</t>
   </si>
   <si>
+    <t>Error message is displayng</t>
+  </si>
+  <si>
     <t>Step 6</t>
   </si>
   <si>
@@ -212,6 +225,9 @@
   </si>
   <si>
     <t>The New Project Type page opens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New project type is opening </t>
   </si>
   <si>
     <t>Step 7</t>
@@ -224,6 +240,9 @@
 </t>
   </si>
   <si>
+    <t>Data is saving Successfully .</t>
+  </si>
+  <si>
     <t>Step 8</t>
   </si>
   <si>
@@ -233,6 +252,9 @@
     <t>The Comment is saved.</t>
   </si>
   <si>
+    <t xml:space="preserve">Comment is saved </t>
+  </si>
+  <si>
     <t>Step 9</t>
   </si>
   <si>
@@ -240,6 +262,9 @@
   </si>
   <si>
     <t>The data is saved successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working as expected </t>
   </si>
   <si>
     <t>Step 10</t>
@@ -261,6 +286,9 @@
     <t>The detials are shown about the Project Type.</t>
   </si>
   <si>
+    <t>Details are showing .</t>
+  </si>
+  <si>
     <t>ROLES</t>
   </si>
   <si>
@@ -298,16 +326,25 @@
     <t>Project Template page opens up.</t>
   </si>
   <si>
+    <t>Project Template page is opening .</t>
+  </si>
+  <si>
     <t>Check the "Project Template" Page.</t>
   </si>
   <si>
     <t>List of Project Template is displayed.</t>
   </si>
   <si>
+    <t>List of Project Template is displaying.</t>
+  </si>
+  <si>
     <t>Click on "+ Add Project Template" Page.</t>
   </si>
   <si>
     <t>New Project Template Page opens up.</t>
+  </si>
+  <si>
+    <t>New Project Template Page is opening .</t>
   </si>
   <si>
     <t>Enter the below details.
@@ -320,10 +357,16 @@
     <t>The New Project Template Page details will be saved successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">it is saved </t>
+  </si>
+  <si>
     <t>Do not enter Mandatory fields.</t>
   </si>
   <si>
     <t>The error message must be shown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error message is dispalying </t>
   </si>
   <si>
     <t xml:space="preserve">Enter data in below the "Tasks" table. 
@@ -335,28 +378,43 @@
     <t xml:space="preserve">The data will be saved successfully. </t>
   </si>
   <si>
+    <t xml:space="preserve">Data is saved </t>
+  </si>
+  <si>
     <t>Click on Edit Row.Enter "Task"in Editing Row#1 message box.</t>
   </si>
   <si>
     <t>The data will be saved successfully.Once the Task is entered the Subject text box opens up and data are automatically generated.</t>
   </si>
   <si>
+    <t xml:space="preserve">Working as Expected </t>
+  </si>
+  <si>
     <t>Click on the Link "Task".</t>
   </si>
   <si>
     <t>The Link will open the "Task" page.</t>
   </si>
   <si>
+    <t xml:space="preserve">TASK page is opening </t>
+  </si>
+  <si>
     <t>Put tick on the check box for multiple rows in the "Maintenance Team Members" table.Click on Delete.</t>
   </si>
   <si>
     <t>The multiple rows should be deleted successfully.</t>
   </si>
   <si>
+    <t>Not available in the screen</t>
+  </si>
+  <si>
     <t>Click on Configure icon on the Columns in "Task" Table.</t>
   </si>
   <si>
     <t>The configure Column message box opens up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box is openiong </t>
   </si>
   <si>
     <t>Specify the Task,Subject and Add/Remove column or delete.Click on Update</t>
@@ -483,16 +541,28 @@
     <t>Project page opens up.</t>
   </si>
   <si>
+    <t xml:space="preserve">Project Page is opening </t>
+  </si>
+  <si>
     <t>Check the "Project" Page.</t>
   </si>
   <si>
     <t>List of Project is displayed.</t>
   </si>
   <si>
+    <t>List of project is dispalying</t>
+  </si>
+  <si>
     <t>Click on "+ Add Project" Page.</t>
   </si>
   <si>
     <t>New Project Page opens up.(message box)</t>
+  </si>
+  <si>
+    <t>new project is opening</t>
+  </si>
+  <si>
+    <t>new project screen is coming.</t>
   </si>
   <si>
     <t>Enter the below details in the message box of New Project.
@@ -505,7 +575,13 @@
 Click on SAVE.</t>
   </si>
   <si>
+    <t>Data is saving`</t>
+  </si>
+  <si>
     <t>Enter Expected Start Date after and Expected End Date.</t>
+  </si>
+  <si>
+    <t>error message is dispalying</t>
   </si>
   <si>
     <t>Enter "Is Active" from the below options.
@@ -514,6 +590,9 @@
   </si>
   <si>
     <t>The selected data is saved successfully.</t>
+  </si>
+  <si>
+    <t>option is displaying</t>
   </si>
   <si>
     <t xml:space="preserve">Enter "Priority" from the below options.
@@ -552,6 +631,9 @@
     <t>The data will be saved successfully.Once the User is entered the Email ,Full Name text box opens up and data are automatically generated.</t>
   </si>
   <si>
+    <t xml:space="preserve">Working as expected </t>
+  </si>
+  <si>
     <t>Click on check box "Welcome email sent."</t>
   </si>
   <si>
@@ -564,10 +646,19 @@
     <t xml:space="preserve">The attachments can be viewed. </t>
   </si>
   <si>
+    <t>View attachment is checked</t>
+  </si>
+  <si>
     <t>Click on Configure icon on the Columns in "Users" Table.</t>
   </si>
   <si>
+    <t>The configure Column message box is opening.</t>
+  </si>
+  <si>
     <t>Specify the User,Full Name,View attachments and Add/Remove column or delete.Click on Update</t>
+  </si>
+  <si>
+    <t>Not Availble in the screen</t>
   </si>
   <si>
     <t>Enter the below details in the "Costing and Billing" Section.
@@ -583,6 +674,12 @@
     <t>It will open the Company page.</t>
   </si>
   <si>
+    <t xml:space="preserve">Company page is not opening </t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>Step 25</t>
   </si>
   <si>
@@ -599,6 +696,9 @@
   </si>
   <si>
     <t>It will collect the progress details.</t>
+  </si>
+  <si>
+    <t>proress is showing</t>
   </si>
   <si>
     <t>Step 27</t>
@@ -617,18 +717,30 @@
 </t>
   </si>
   <si>
+    <t>project page is opening with list of project</t>
+  </si>
+  <si>
     <t>Step 30</t>
   </si>
   <si>
     <t>The detials are shown about the Project .</t>
   </si>
   <si>
+    <t xml:space="preserve">the details are showing about the project </t>
+  </si>
+  <si>
     <t>TC4_Project Update</t>
   </si>
   <si>
     <t>Test Project Plan Monitoring _Project Update</t>
   </si>
   <si>
+    <t>Credential for Infrastructure super admin:
+URL: https://soulwsc.eduleadonline.com/app/infrastructure
+User ID: Project Manager
+Password: admin</t>
+  </si>
+  <si>
     <t>Verify the Project Update module.</t>
   </si>
   <si>
@@ -638,7 +750,13 @@
     <t>Click on Home &gt; Project Plan Monitoring &gt;Project&gt; Project Update</t>
   </si>
   <si>
+    <t>project is opening</t>
+  </si>
+  <si>
     <t>Check the "Project Update" Page.</t>
+  </si>
+  <si>
+    <t>list of project is dispalying</t>
   </si>
   <si>
     <t>Click on "+ Add Project Update" Page.</t>
@@ -648,6 +766,15 @@
 - Project
 - Users
 Click on SAVE.</t>
+  </si>
+  <si>
+    <t>Data is saving</t>
+  </si>
+  <si>
+    <t>Not availble in this screen</t>
+  </si>
+  <si>
+    <t>Error message is showing</t>
   </si>
   <si>
     <t xml:space="preserve">Enter Users table
@@ -658,30 +785,60 @@
 </t>
   </si>
   <si>
+    <t>user is showing expected option</t>
+  </si>
+  <si>
+    <t>attachment is showing as checked</t>
+  </si>
+  <si>
+    <t>Colums is dispalying</t>
+  </si>
+  <si>
+    <t>It is restting to default</t>
+  </si>
+  <si>
     <t>Put tick on the check box for one row in the "User" table.Click on Delete.</t>
   </si>
   <si>
+    <t>it is deleted successfully</t>
+  </si>
+  <si>
     <t>Put tick on the check box for multiple rows in the "User" table.Click on Delete.</t>
   </si>
   <si>
+    <t>Rows is deleting successfully</t>
+  </si>
+  <si>
     <t>Click on Save with the all the data filled.Add a comment in the Add a comment section and click on "Comment" button .Click on SAVE.</t>
   </si>
   <si>
+    <t>comment is saved</t>
+  </si>
+  <si>
     <t>Click on "SUBMIT."</t>
   </si>
   <si>
     <t>The message displayed is "Permanently Submit UPDATE-PROJ-0001-230906-0001?"</t>
   </si>
   <si>
+    <t>message is dispalying</t>
+  </si>
+  <si>
     <t>Click on "Yes".</t>
   </si>
   <si>
     <t>The message displayed is "Project Update is saved."</t>
   </si>
   <si>
+    <t>It is updated</t>
+  </si>
+  <si>
     <t>Click on "No".</t>
   </si>
   <si>
+    <t>it is showing cancel</t>
+  </si>
+  <si>
     <t>Click on "CANCEL."</t>
   </si>
   <si>
@@ -691,6 +848,12 @@
     <t>The message displayed is "Cancelled".And "AMEND" button is displayed.</t>
   </si>
   <si>
+    <t>Amend is showing</t>
+  </si>
+  <si>
+    <t>it is cancelled</t>
+  </si>
+  <si>
     <t>Step 31</t>
   </si>
   <si>
@@ -698,6 +861,9 @@
   </si>
   <si>
     <t>The New Project Update page is displayed .And "SAVE" button is shown.</t>
+  </si>
+  <si>
+    <t>Save button is showing</t>
   </si>
   <si>
     <t>Step 32</t>
@@ -710,6 +876,9 @@
 </t>
   </si>
   <si>
+    <t>Project page is opening with list of project update</t>
+  </si>
+  <si>
     <t>Step 33</t>
   </si>
   <si>
@@ -717,6 +886,9 @@
   </si>
   <si>
     <t>The detials are shown about the Project Update .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the details are showing </t>
   </si>
   <si>
     <t xml:space="preserve">Generic </t>
@@ -1261,7 +1433,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,6 +1460,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.15"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1875,135 +2054,135 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2050,28 +2229,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2088,7 +2281,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2096,27 +2289,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2176,6 +2372,7 @@
     <mruColors>
       <color rgb="00F9F88C"/>
       <color rgb="00F6F5C5"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2450,65 +2647,65 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="24.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="20.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="43.3619047619048" customWidth="1"/>
+    <col min="3" max="3" width="24.3619047619048" customWidth="1"/>
+    <col min="4" max="4" width="23.0952380952381" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="15.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="14.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="20.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="14.6380952380952" customWidth="1"/>
+    <col min="10" max="10" width="15.7238095238095" customWidth="1"/>
+    <col min="11" max="11" width="14.4571428571429" customWidth="1"/>
+    <col min="12" max="12" width="20.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:12">
-      <c r="A5" s="49"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="56"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" ht="78" customHeight="1" spans="2:12">
       <c r="B6" s="4" t="s">
@@ -2516,25 +2713,25 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="55"/>
+      <c r="B7" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2554,37 +2751,37 @@
   <sheetPr/>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="16.7142857142857" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="190.363636363636" customWidth="1"/>
-    <col min="3" max="3" width="30.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="91.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="45.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="65.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="16.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="46.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="36.5714285714286" customWidth="1"/>
+    <col min="6" max="16384" width="16.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:8">
+    <row r="1" ht="30" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -2593,7 +2790,7 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2629,8 +2826,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2640,7 +2837,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="29" spans="1:8">
+    <row r="6" ht="30" spans="1:8">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2668,7 +2865,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="130.5" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2729,23 +2926,23 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="14" customHeight="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
@@ -2758,197 +2955,241 @@
       <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="30" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="49" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="31" customHeight="1" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" ht="28" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:7">
+    <row r="20" ht="45" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" ht="30" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" ht="28" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="35"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" s="24" customFormat="1" spans="1:7">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+        <v>79</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" s="25" customFormat="1" spans="1:4">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>70</v>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" s="24" customFormat="1" spans="1:4">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45" t="s">
-        <v>71</v>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="43" t="s">
-        <v>72</v>
+      <c r="D28" s="53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" s="24" customFormat="1" spans="1:4">
@@ -2963,13 +3204,13 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" s="24" customFormat="1" ht="29" spans="2:2">
-      <c r="B31" s="46" t="s">
-        <v>73</v>
+    <row r="31" s="24" customFormat="1" ht="30" spans="2:2">
+      <c r="B31" s="54" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" s="24" customFormat="1" spans="2:2">
-      <c r="B32" s="47"/>
+      <c r="B32" s="52"/>
     </row>
     <row r="33" s="24" customFormat="1"/>
     <row r="34" s="24" customFormat="1"/>
@@ -3013,18 +3254,18 @@
   <sheetPr/>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A29" sqref="$A29:$XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="99.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="12.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="62.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="30.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="22.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="99.6380952380952" customWidth="1"/>
+    <col min="3" max="3" width="12.2761904761905" customWidth="1"/>
+    <col min="4" max="4" width="52.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="25.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="30.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3032,18 +3273,18 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="C1" s="27"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3052,7 +3293,7 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
@@ -3088,8 +3329,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3099,7 +3340,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="29" spans="1:8">
+    <row r="6" ht="30" spans="1:8">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3127,7 +3368,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="130.5" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3143,7 +3384,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3188,244 +3429,292 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="32" t="s">
-        <v>77</v>
+      <c r="B13" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="38"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" ht="30" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="30" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="30" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="74" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" ht="58" spans="1:7">
+    <row r="19" ht="60" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="37"/>
+        <v>64</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="26"/>
       <c r="D21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="D25" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="D26" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="D27" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" ht="29" spans="1:7">
+    <row r="28" ht="30" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="34" t="s">
-        <v>109</v>
+      <c r="D28" s="40" t="s">
+        <v>130</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3433,169 +3722,169 @@
     </row>
     <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="34" t="s">
-        <v>112</v>
+      <c r="D29" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" customFormat="1" ht="130.5" spans="1:7">
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" customFormat="1" ht="135" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="34" t="s">
-        <v>61</v>
+      <c r="D30" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" customFormat="1" ht="58" spans="1:7">
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" customFormat="1" ht="60" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="34" t="s">
-        <v>117</v>
+      <c r="D31" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="35"/>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" customFormat="1" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="35"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" customFormat="1" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="34" t="s">
-        <v>61</v>
+      <c r="D33" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" customFormat="1" ht="29" spans="1:7">
+      <c r="G33" s="41"/>
+    </row>
+    <row r="34" customFormat="1" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="34" t="s">
-        <v>61</v>
+      <c r="D34" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="35"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="34" t="s">
-        <v>61</v>
+      <c r="D35" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" customFormat="1" ht="29" spans="1:7">
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" customFormat="1" ht="30" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="35"/>
+        <v>148</v>
+      </c>
+      <c r="E36" s="41"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="35"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" customFormat="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="35"/>
+        <v>150</v>
+      </c>
+      <c r="E37" s="41"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="35"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" s="24" customFormat="1" spans="1:7">
       <c r="A38" s="20" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="40"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" s="25" customFormat="1" spans="1:4">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>70</v>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" s="24" customFormat="1" spans="1:4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45" t="s">
-        <v>71</v>
+      <c r="A40" s="50"/>
+      <c r="B40" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="25"/>
-      <c r="D40" s="43" t="s">
-        <v>72</v>
+      <c r="D40" s="53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" s="24" customFormat="1" spans="1:4">
@@ -3610,13 +3899,13 @@
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
     </row>
-    <row r="43" s="24" customFormat="1" ht="29" spans="2:2">
-      <c r="B43" s="46" t="s">
-        <v>73</v>
+    <row r="43" s="24" customFormat="1" ht="30" spans="2:2">
+      <c r="B43" s="54" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" s="24" customFormat="1" spans="2:2">
-      <c r="B44" s="47"/>
+      <c r="B44" s="52"/>
     </row>
     <row r="45" s="24" customFormat="1"/>
     <row r="46" s="24" customFormat="1"/>
@@ -3660,18 +3949,19 @@
   <sheetPr/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
-    <col min="3" max="3" width="48.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="138" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="89.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="53.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="17.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3679,18 +3969,18 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="C1" s="27"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3699,7 +3989,7 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
@@ -3735,8 +4025,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3774,7 +4064,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="130.5" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3790,7 +4080,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3835,498 +4125,606 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="32" t="s">
-        <v>133</v>
+      <c r="B13" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" customFormat="1" ht="116" spans="1:7">
+      <c r="D17" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" customFormat="1" ht="120" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" customFormat="1" ht="58" spans="1:7">
+      <c r="D18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" customFormat="1" ht="60" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" customFormat="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" customFormat="1" ht="43.5" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" customFormat="1" ht="45" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" customFormat="1" ht="72.5" spans="1:7">
+        <v>170</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" customFormat="1" ht="75" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" customFormat="1" ht="58" spans="1:7">
+      <c r="E22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" customFormat="1" ht="60" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" customFormat="1" ht="87" spans="1:7">
+      <c r="E23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" customFormat="1" ht="90" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="35"/>
+      <c r="E24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" customFormat="1" ht="85" customHeight="1" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="35"/>
+      <c r="D25" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" customFormat="1" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="35"/>
+        <v>177</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="37"/>
+        <v>127</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="26"/>
       <c r="D27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="35"/>
+        <v>180</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="37"/>
+        <v>128</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="26"/>
       <c r="D28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:7">
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" customFormat="1" ht="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="35"/>
+      <c r="D30" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="35"/>
+      <c r="D31" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="41"/>
     </row>
     <row r="32" customFormat="1" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="35"/>
+      <c r="D32" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" customFormat="1" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="3"/>
+      <c r="D33" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>187</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="35"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" customFormat="1" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="3"/>
+      <c r="D34" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>187</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="35"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="D35" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>187</v>
+      </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" customFormat="1" ht="72.5" spans="1:7">
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" customFormat="1" ht="75" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="35"/>
+      <c r="D36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" customFormat="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="35"/>
+      <c r="D37" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="D38" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>187</v>
+      </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="35"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" customFormat="1" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:7">
+      <c r="D39" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" customFormat="1" ht="30" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C40" s="15"/>
-      <c r="D40" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="35"/>
+      <c r="D40" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" customFormat="1" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" customFormat="1" ht="29" spans="1:7">
+      <c r="D41" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" customFormat="1" ht="30" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="35"/>
+        <v>204</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" customFormat="1" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="35"/>
+        <v>207</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" s="24" customFormat="1" spans="1:7">
       <c r="A44" s="20" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+        <v>79</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="40"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" s="25" customFormat="1" spans="1:4">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>70</v>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" s="24" customFormat="1" spans="1:4">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45" t="s">
-        <v>71</v>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C46" s="25"/>
-      <c r="D46" s="43" t="s">
-        <v>72</v>
+      <c r="D46" s="53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" s="24" customFormat="1" spans="1:4">
@@ -4357,18 +4755,18 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="105.927272727273" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="22.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="59.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="58.7619047619048" style="26" customWidth="1"/>
+    <col min="5" max="5" width="27.9428571428571" customWidth="1"/>
+    <col min="8" max="8" width="22.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4376,18 +4774,18 @@
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -4396,8 +4794,8 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3"/>
@@ -4409,7 +4807,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -4419,7 +4817,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4432,8 +4830,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -4451,7 +4849,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
         <v>23</v>
@@ -4465,18 +4863,18 @@
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="130.5" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4487,10 +4885,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4500,7 +4898,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4510,7 +4908,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4526,483 +4924,589 @@
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="32" t="s">
-        <v>175</v>
+      <c r="B13" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="58" spans="1:7">
+    <row r="17" customFormat="1" ht="60" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="35"/>
+      <c r="D17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" customFormat="1" ht="14" customHeight="1" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="D18" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>221</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="35"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" customFormat="1" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" customFormat="1" ht="85" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" customFormat="1" ht="29" spans="1:7">
+      <c r="D20" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" customFormat="1" ht="45" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="35"/>
+        <v>177</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="37"/>
+        <v>127</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="26"/>
       <c r="D22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="35"/>
+        <v>180</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="37"/>
+        <v>128</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="26"/>
       <c r="D23" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="35"/>
+        <v>111</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:7">
+      <c r="D25" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" customFormat="1" ht="30" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:7">
+      <c r="D27" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" customFormat="1" ht="30" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:7">
+      <c r="D28" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" customFormat="1" ht="30" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="35"/>
+      <c r="D29" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:7">
+      <c r="D30" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" customFormat="1" ht="45" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:7">
+      <c r="D31" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" customFormat="1" ht="30" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:7">
+      <c r="D32" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" customFormat="1" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="35"/>
+      <c r="D33" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" customFormat="1" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="35"/>
+      <c r="D34" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:7">
+      <c r="D35" s="40"/>
+      <c r="E35" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" customFormat="1" ht="30" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:7">
+      <c r="D36" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="41"/>
+    </row>
+    <row r="37" customFormat="1" ht="30" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="35"/>
+      <c r="D37" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:7">
+      <c r="D38" s="40"/>
+      <c r="E38" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" customFormat="1" ht="30" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" customFormat="1" ht="29" spans="1:7">
+      <c r="D39" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" customFormat="1" ht="30" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="35"/>
+        <v>253</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" customFormat="1" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E41" s="35"/>
+      <c r="D41" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>258</v>
+      </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="35"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" s="24" customFormat="1" spans="1:7">
       <c r="A42" s="20" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+        <v>79</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="40"/>
-    </row>
-    <row r="43" s="25" customFormat="1" spans="1:4">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" s="24" customFormat="1" spans="1:4">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>71</v>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" s="25" customFormat="1" ht="30" spans="1:4">
+      <c r="A43" s="47"/>
+      <c r="B43" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" s="24" customFormat="1" ht="30" spans="1:4">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="25"/>
-      <c r="D44" s="43" t="s">
-        <v>72</v>
+      <c r="D44" s="49" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" s="24" customFormat="1" spans="1:4">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5024,14 +5528,14 @@
       <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="75.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="36.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="15.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="9.54285714285714" customWidth="1"/>
+    <col min="4" max="4" width="75.2761904761905" customWidth="1"/>
+    <col min="6" max="6" width="36.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="15.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5039,14 +5543,14 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -5097,12 +5601,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5131,7 +5635,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5190,7 +5694,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -5203,11 +5707,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5215,14 +5719,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5230,14 +5734,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5245,7 +5749,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
@@ -5257,7 +5761,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -5267,14 +5771,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5282,14 +5786,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5297,14 +5801,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -5312,14 +5816,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5328,7 +5832,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -5336,16 +5840,16 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" ht="72.5" spans="1:7">
+    <row r="24" ht="75" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5354,7 +5858,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -5362,16 +5866,16 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="58" spans="1:7">
+    <row r="26" ht="60" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5379,14 +5883,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5394,14 +5898,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5409,10 +5913,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -5422,10 +5926,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -5436,7 +5940,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -5444,46 +5948,46 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="116" spans="1:7">
+    <row r="32" ht="120" spans="1:7">
       <c r="A32" s="15" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="29" spans="1:7">
+    <row r="33" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="29" spans="1:7">
+    <row r="34" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5491,29 +5995,29 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" ht="43.5" spans="1:7">
+    <row r="36" ht="45" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5521,14 +6025,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5536,14 +6040,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5551,14 +6055,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5566,29 +6070,29 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" ht="72.5" spans="1:7">
+    <row r="41" ht="75" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -5596,14 +6100,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5611,14 +6115,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -5626,14 +6130,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5641,14 +6145,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5656,14 +6160,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5671,10 +6175,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -5684,25 +6188,25 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" ht="29" spans="1:7">
+    <row r="49" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -5712,14 +6216,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5727,10 +6231,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -5740,10 +6244,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -5753,10 +6257,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -5766,10 +6270,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -5789,7 +6293,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -5799,14 +6303,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5824,7 +6328,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -5834,14 +6338,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -5849,14 +6353,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -5864,14 +6368,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -5879,31 +6383,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -5911,29 +6415,29 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" ht="43.5" spans="1:7">
+    <row r="66" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -5941,29 +6445,29 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" ht="159.5" spans="1:7">
+    <row r="68" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -5971,14 +6475,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -5986,14 +6490,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -6001,14 +6505,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -6016,14 +6520,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -6031,14 +6535,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -6046,14 +6550,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -6061,14 +6565,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -6076,14 +6580,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -6091,14 +6595,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -6107,7 +6611,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -6117,14 +6621,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -6132,14 +6636,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -6147,14 +6651,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
